--- a/Excel/GiftPackEquipConfig.xlsx
+++ b/Excel/GiftPackEquipConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="12">
   <si>
     <t>#</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>AttrIdList</t>
+  </si>
+  <si>
+    <t>Quality</t>
   </si>
   <si>
     <t>Id</t>
@@ -1036,39 +1039,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="4" width="9.875" style="1" customWidth="1"/>
     <col min="5" max="6" width="12.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="23.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="2" customWidth="1"/>
-    <col min="9" max="16367" width="9" style="2"/>
-    <col min="16368" max="16384" width="9" style="3"/>
+    <col min="8" max="8" width="12.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="2" customWidth="1"/>
+    <col min="10" max="16368" width="9" style="2"/>
+    <col min="16369" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
@@ -1086,12 +1090,15 @@
       <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>2</v>
@@ -1105,27 +1112,33 @@
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="H4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="3:8">
+    <row r="6" customHeight="1" spans="3:9">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1139,13 +1152,16 @@
         <v>10</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="3:8">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="3:9">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1159,13 +1175,16 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="3:8">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:9">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1179,13 +1198,16 @@
         <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="3:8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:9">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1199,13 +1221,16 @@
         <v>10</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:8">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:9">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1219,13 +1244,16 @@
         <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:8">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:9">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1239,13 +1267,16 @@
         <v>10005</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:8">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:9">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -1259,13 +1290,16 @@
         <v>10006</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:8">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:9">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -1279,13 +1313,16 @@
         <v>10006</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:8">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:9">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1299,13 +1336,16 @@
         <v>10021</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:8">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:9">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1319,13 +1359,16 @@
         <v>10021</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:8">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:9">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -1339,13 +1382,16 @@
         <v>10022</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:8">
+        <v>10</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:9">
       <c r="C17" s="1">
         <v>12</v>
       </c>
@@ -1359,13 +1405,16 @@
         <v>10022</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:8">
+        <v>10</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:9">
       <c r="C18" s="1">
         <v>13</v>
       </c>
@@ -1379,13 +1428,16 @@
         <v>10017</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:8">
+        <v>10</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:9">
       <c r="C19" s="1">
         <v>14</v>
       </c>
@@ -1399,13 +1451,16 @@
         <v>10022</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:8">
+        <v>10</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:9">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -1419,13 +1474,16 @@
         <v>10018</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:8">
+        <v>10</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:9">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -1439,13 +1497,16 @@
         <v>10018</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:8">
+        <v>10</v>
+      </c>
+      <c r="H21" s="3">
+        <v>6</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:9">
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -1459,13 +1520,16 @@
         <v>4</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:8">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:9">
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -1479,13 +1543,16 @@
         <v>4</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:8">
+        <v>10</v>
+      </c>
+      <c r="H23" s="3">
+        <v>6</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:9">
       <c r="C24" s="1">
         <v>19</v>
       </c>
@@ -1499,13 +1566,16 @@
         <v>10037</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:8">
+        <v>10</v>
+      </c>
+      <c r="H24" s="3">
+        <v>6</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:9">
       <c r="C25" s="1">
         <v>20</v>
       </c>
@@ -1519,13 +1589,16 @@
         <v>10037</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:8">
+        <v>10</v>
+      </c>
+      <c r="H25" s="3">
+        <v>6</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:9">
       <c r="C26" s="1">
         <v>21</v>
       </c>
@@ -1539,13 +1612,16 @@
         <v>9</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:8">
+        <v>10</v>
+      </c>
+      <c r="H26" s="3">
+        <v>6</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:9">
       <c r="C27" s="1">
         <v>22</v>
       </c>
@@ -1559,13 +1635,16 @@
         <v>15</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:8">
+        <v>10</v>
+      </c>
+      <c r="H27" s="3">
+        <v>6</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:9">
       <c r="C28" s="1">
         <v>23</v>
       </c>
@@ -1579,13 +1658,16 @@
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:8">
+        <v>10</v>
+      </c>
+      <c r="H28" s="3">
+        <v>6</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:9">
       <c r="C29" s="1">
         <v>24</v>
       </c>
@@ -1599,48 +1681,62 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="6:6">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3">
+        <v>6</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="6:8">
       <c r="F30" s="6"/>
-    </row>
-    <row r="31" customHeight="1" spans="6:6">
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" customHeight="1" spans="6:8">
       <c r="F31" s="6"/>
-    </row>
-    <row r="32" customHeight="1" spans="6:6">
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" customHeight="1" spans="6:8">
       <c r="F32" s="6"/>
-    </row>
-    <row r="33" customHeight="1" spans="6:6">
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" customHeight="1" spans="6:8">
       <c r="F33" s="6"/>
-    </row>
-    <row r="34" customHeight="1" spans="6:6">
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" customHeight="1" spans="6:8">
       <c r="F34" s="6"/>
-    </row>
-    <row r="35" customHeight="1" spans="6:6">
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" customHeight="1" spans="6:8">
       <c r="F35" s="6"/>
-    </row>
-    <row r="36" customHeight="1" spans="6:6">
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" customHeight="1" spans="6:8">
       <c r="F36" s="6"/>
-    </row>
-    <row r="37" customHeight="1" spans="6:6">
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" customHeight="1" spans="6:8">
       <c r="F37" s="6"/>
-    </row>
-    <row r="38" customHeight="1" spans="6:6">
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" customHeight="1" spans="6:8">
       <c r="F38" s="6"/>
-    </row>
-    <row r="39" customHeight="1" spans="6:6">
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" customHeight="1" spans="6:8">
       <c r="F39" s="6"/>
-    </row>
-    <row r="40" customHeight="1" spans="6:6">
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" customHeight="1" spans="6:8">
       <c r="F40" s="6"/>
+      <c r="H40" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:D3 C4 D4 C5:D5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:D5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/GiftPackEquipConfig.xlsx
+++ b/Excel/GiftPackEquipConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="19">
   <si>
     <t>#</t>
   </si>
@@ -63,6 +63,27 @@
   </si>
   <si>
     <t>经验套</t>
+  </si>
+  <si>
+    <t>33,33,2001,2002,2003,2004</t>
+  </si>
+  <si>
+    <t>攻击套</t>
+  </si>
+  <si>
+    <t>33,2011,2001,2002,2003,2004</t>
+  </si>
+  <si>
+    <t>34,34,2001,2002,2003,2005</t>
+  </si>
+  <si>
+    <t>34,2011,2001,2002,2003,2005</t>
+  </si>
+  <si>
+    <t>35,35,2001,2002,2003,2006</t>
+  </si>
+  <si>
+    <t>35,2011,2001,2002,2003,2006</t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1060,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1694,45 +1715,557 @@
       <c r="F30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" customHeight="1" spans="6:8">
-      <c r="F31" s="6"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" customHeight="1" spans="6:8">
-      <c r="F32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" customHeight="1" spans="6:8">
-      <c r="F33" s="6"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" customHeight="1" spans="6:8">
-      <c r="F34" s="6"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" customHeight="1" spans="6:8">
-      <c r="F35" s="6"/>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" customHeight="1" spans="6:8">
-      <c r="F36" s="6"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" customHeight="1" spans="6:8">
-      <c r="F37" s="6"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" customHeight="1" spans="6:8">
-      <c r="F38" s="6"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" customHeight="1" spans="6:8">
-      <c r="F39" s="6"/>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" customHeight="1" spans="6:8">
-      <c r="F40" s="6"/>
-      <c r="H40" s="6"/>
+    <row r="31" customHeight="1" spans="3:9">
+      <c r="C31" s="1">
+        <v>25</v>
+      </c>
+      <c r="D31" s="3">
+        <v>21105801</v>
+      </c>
+      <c r="E31" s="3">
+        <v>9</v>
+      </c>
+      <c r="F31" s="3">
+        <v>10</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="3">
+        <v>6</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:9">
+      <c r="C32" s="1">
+        <v>26</v>
+      </c>
+      <c r="D32" s="3">
+        <v>21105802</v>
+      </c>
+      <c r="E32" s="3">
+        <v>9</v>
+      </c>
+      <c r="F32" s="3">
+        <v>10</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="3">
+        <v>6</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:9">
+      <c r="C33" s="1">
+        <v>27</v>
+      </c>
+      <c r="D33" s="3">
+        <v>21105803</v>
+      </c>
+      <c r="E33" s="3">
+        <v>9</v>
+      </c>
+      <c r="F33" s="3">
+        <v>10</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="3">
+        <v>6</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:9">
+      <c r="C34" s="1">
+        <v>28</v>
+      </c>
+      <c r="D34" s="3">
+        <v>21105804</v>
+      </c>
+      <c r="E34" s="3">
+        <v>9</v>
+      </c>
+      <c r="F34" s="3">
+        <v>10</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="3">
+        <v>6</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:9">
+      <c r="C35" s="1">
+        <v>29</v>
+      </c>
+      <c r="D35" s="3">
+        <v>21105805</v>
+      </c>
+      <c r="E35" s="3">
+        <v>21</v>
+      </c>
+      <c r="F35" s="3">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="3">
+        <v>6</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:9">
+      <c r="C36" s="1">
+        <v>30</v>
+      </c>
+      <c r="D36" s="3">
+        <v>21105807</v>
+      </c>
+      <c r="E36" s="6">
+        <v>10014</v>
+      </c>
+      <c r="F36" s="6">
+        <v>10005</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="3">
+        <v>6</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:9">
+      <c r="C37" s="1">
+        <v>31</v>
+      </c>
+      <c r="D37" s="3">
+        <v>21105809</v>
+      </c>
+      <c r="E37" s="6">
+        <v>10015</v>
+      </c>
+      <c r="F37" s="6">
+        <v>10006</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="3">
+        <v>6</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:9">
+      <c r="C38" s="1">
+        <v>32</v>
+      </c>
+      <c r="D38" s="3">
+        <v>21105810</v>
+      </c>
+      <c r="E38" s="6">
+        <v>10015</v>
+      </c>
+      <c r="F38" s="6">
+        <v>10006</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="3">
+        <v>6</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:9">
+      <c r="C39" s="1">
+        <v>33</v>
+      </c>
+      <c r="D39" s="3">
+        <v>22105801</v>
+      </c>
+      <c r="E39" s="3">
+        <v>10047</v>
+      </c>
+      <c r="F39" s="6">
+        <v>10021</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="3">
+        <v>6</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:9">
+      <c r="C40" s="1">
+        <v>34</v>
+      </c>
+      <c r="D40" s="3">
+        <v>22105802</v>
+      </c>
+      <c r="E40" s="3">
+        <v>10047</v>
+      </c>
+      <c r="F40" s="6">
+        <v>10021</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="3">
+        <v>6</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:9">
+      <c r="C41" s="1">
+        <v>35</v>
+      </c>
+      <c r="D41" s="3">
+        <v>22105803</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3</v>
+      </c>
+      <c r="F41" s="6">
+        <v>10022</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="3">
+        <v>6</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:9">
+      <c r="C42" s="1">
+        <v>36</v>
+      </c>
+      <c r="D42" s="3">
+        <v>22105804</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3</v>
+      </c>
+      <c r="F42" s="6">
+        <v>10022</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="3">
+        <v>6</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:9">
+      <c r="C43" s="1">
+        <v>37</v>
+      </c>
+      <c r="D43" s="3">
+        <v>22105805</v>
+      </c>
+      <c r="E43" s="3">
+        <v>8</v>
+      </c>
+      <c r="F43" s="6">
+        <v>10017</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="3">
+        <v>6</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:9">
+      <c r="C44" s="1">
+        <v>38</v>
+      </c>
+      <c r="D44" s="3">
+        <v>22105807</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3</v>
+      </c>
+      <c r="F44" s="6">
+        <v>10022</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="3">
+        <v>6</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:9">
+      <c r="C45" s="1">
+        <v>39</v>
+      </c>
+      <c r="D45" s="3">
+        <v>22105809</v>
+      </c>
+      <c r="E45" s="3">
+        <v>12</v>
+      </c>
+      <c r="F45" s="6">
+        <v>10018</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="3">
+        <v>6</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:9">
+      <c r="C46" s="1">
+        <v>40</v>
+      </c>
+      <c r="D46" s="3">
+        <v>22105810</v>
+      </c>
+      <c r="E46" s="3">
+        <v>12</v>
+      </c>
+      <c r="F46" s="6">
+        <v>10018</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="3">
+        <v>6</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:9">
+      <c r="C47" s="1">
+        <v>41</v>
+      </c>
+      <c r="D47" s="3">
+        <v>23105801</v>
+      </c>
+      <c r="E47" s="3">
+        <v>20</v>
+      </c>
+      <c r="F47" s="3">
+        <v>4</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="3">
+        <v>6</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:9">
+      <c r="C48" s="1">
+        <v>42</v>
+      </c>
+      <c r="D48" s="3">
+        <v>23105802</v>
+      </c>
+      <c r="E48" s="3">
+        <v>20</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="3">
+        <v>6</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:9">
+      <c r="C49" s="1">
+        <v>43</v>
+      </c>
+      <c r="D49" s="3">
+        <v>23105803</v>
+      </c>
+      <c r="E49" s="3">
+        <v>16</v>
+      </c>
+      <c r="F49" s="3">
+        <v>10037</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="3">
+        <v>6</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:9">
+      <c r="C50" s="1">
+        <v>44</v>
+      </c>
+      <c r="D50" s="3">
+        <v>23105804</v>
+      </c>
+      <c r="E50" s="3">
+        <v>16</v>
+      </c>
+      <c r="F50" s="3">
+        <v>10037</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="3">
+        <v>6</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:9">
+      <c r="C51" s="1">
+        <v>45</v>
+      </c>
+      <c r="D51" s="3">
+        <v>23105805</v>
+      </c>
+      <c r="E51" s="3">
+        <v>10064</v>
+      </c>
+      <c r="F51" s="3">
+        <v>9</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="3">
+        <v>6</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:9">
+      <c r="C52" s="1">
+        <v>46</v>
+      </c>
+      <c r="D52" s="3">
+        <v>23105807</v>
+      </c>
+      <c r="E52" s="3">
+        <v>20</v>
+      </c>
+      <c r="F52" s="3">
+        <v>15</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="3">
+        <v>6</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:9">
+      <c r="C53" s="1">
+        <v>47</v>
+      </c>
+      <c r="D53" s="3">
+        <v>23105809</v>
+      </c>
+      <c r="E53" s="3">
+        <v>28</v>
+      </c>
+      <c r="F53" s="3">
+        <v>18</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="3">
+        <v>6</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:9">
+      <c r="C54" s="1">
+        <v>48</v>
+      </c>
+      <c r="D54" s="3">
+        <v>23105810</v>
+      </c>
+      <c r="E54" s="3">
+        <v>28</v>
+      </c>
+      <c r="F54" s="3">
+        <v>18</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="3">
+        <v>6</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/GiftPackEquipConfig.xlsx
+++ b/Excel/GiftPackEquipConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="22">
   <si>
     <t>#</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>35,2011,2001,2002,2003,2006</t>
+  </si>
+  <si>
+    <t>7,7,7,7,2001,2006</t>
+  </si>
+  <si>
+    <t>攻击套-4幸运 道术加 攻击的 2武器</t>
+  </si>
+  <si>
+    <t>攻击套-4幸运 道术加 攻击的 2项链</t>
   </si>
 </sst>
 </file>
@@ -1060,10 +1069,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2267,6 +2276,52 @@
         <v>13</v>
       </c>
     </row>
+    <row r="55" customHeight="1" spans="3:9">
+      <c r="C55" s="1">
+        <v>49</v>
+      </c>
+      <c r="D55" s="3">
+        <v>23105801</v>
+      </c>
+      <c r="E55" s="3">
+        <v>20</v>
+      </c>
+      <c r="F55" s="3">
+        <v>4</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="3">
+        <v>6</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:9">
+      <c r="C56" s="1">
+        <v>50</v>
+      </c>
+      <c r="D56" s="3">
+        <v>23105803</v>
+      </c>
+      <c r="E56" s="3">
+        <v>20</v>
+      </c>
+      <c r="F56" s="3">
+        <v>4</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="3">
+        <v>6</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:D5" errorStyle="warning">
